--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846740999</v>
+        <v>4086030.660667714</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>83.85112090809152</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>123.7310010025641</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112263</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>171.7498680634317</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>174.3964754406692</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.63890193362665</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>132.7429138866483</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471655</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8784673763408</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258334</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060142</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>138.6410837477296</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>138.6410837477296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.061315312042</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>962.0987983716307</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>603.8330997648802</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>603.8330997648802</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>192.8471949752727</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>178.9237909138636</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>554.6442689908469</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>554.6442689908469</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>554.6442689908469</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1154.465078167382</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1154.465078167382</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>796.199379560631</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>796.199379560631</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,19 +4805,19 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>464.4746912499463</v>
+        <v>968.0255763514234</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1599.743387334735</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.991035017546</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.299331762697</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2267.299331762697</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1914.530676492583</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1541.064918231503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1541.064918231503</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1734.774662373908</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2284.210671126631</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.3528679052845</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>517.3528679052845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.3528679052845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>919.7939118790543</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.0013327355242</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5890,16 +5890,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576786</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,49 +6923,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932954</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>184.4918451070949</v>
       </c>
       <c r="M8" t="n">
-        <v>199.0051585876254</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>258.1828939084838</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>222.8795953590781</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41.54258064659049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.5977558415268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562243</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610239.5014876032</v>
+        <v>610239.5014876033</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682687</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.53656668276</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682719</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="O4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670413</v>
+        <v>-61707.60287670416</v>
       </c>
       <c r="C6" t="n">
         <v>528260.2763378402</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440458</v>
+        <v>372456.4702440455</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808139037</v>
+        <v>-70740.89600682593</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994161</v>
+        <v>700311.7953739805</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.5332994168</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994161</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994161</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068229</v>
+        <v>523888.5761813876</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.5332994164</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913577</v>
+        <v>576103.2846659222</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994162</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994164</v>
+        <v>700311.7953739803</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994163</v>
+        <v>700311.7953739805</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.08019533676973</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>200.191771761793</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.3983626790352</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>53.28523739465257</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,13 +27904,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>38.2553876742968</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>273.6217527244704</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.96674150238889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897921</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>454.5879800486398</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>454.5879800486398</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>253.6713445157999</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>325.2278611083608</v>
       </c>
       <c r="M8" t="n">
-        <v>387.5904240678352</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>439.4933346707109</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>332.6670979119052</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991793</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>311.9917356041954</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>311.9917356041954</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>122.3296324324666</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
